--- a/QTC_C_k-means_2_cluster_acc.xlsx
+++ b/QTC_C_k-means_2_cluster_acc.xlsx
@@ -298,9 +298,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>304200</xdr:colOff>
+      <xdr:colOff>303840</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -309,8 +309,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6514920" y="2088000"/>
-          <a:ext cx="304200" cy="319320"/>
+          <a:off x="6562440" y="2088000"/>
+          <a:ext cx="303840" cy="318960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -350,17 +350,17 @@
   </sheetPr>
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B104" activeCellId="0" sqref="B104"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C104" activeCellId="0" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2091,6 +2091,7 @@
         <v>100</v>
       </c>
     </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="0" t="s">
         <v>16</v>
